--- a/Templates/Seminar-UXD-04-Personas-Template.xlsx
+++ b/Templates/Seminar-UXD-04-Personas-Template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FDFFC7AD-B284-4D93-A244-02168DD29170}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="5985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,6 +198,138 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>17788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Grafik 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DCDA0B-DC58-4CB6-9FAC-A51158DAE3AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14573250" y="3381375"/>
+          <a:ext cx="5842000" cy="1398913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Grafik 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8AC0D8E-B681-4EB2-902B-EB7717370076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7461250" y="3365500"/>
+          <a:ext cx="5842000" cy="1398913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>111124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>176537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A7BF74-EBD5-44B6-B27F-FC338C768142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="920750" y="3349624"/>
+          <a:ext cx="5842000" cy="1398913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -212,13 +345,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -280,13 +419,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -348,13 +493,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -416,13 +567,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Grafik 5"/>
+        <xdr:cNvPr id="6" name="Grafik 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -456,90 +613,41 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>545286</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Grafik 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="793750" y="4143375"/>
-          <a:ext cx="5784036" cy="1317625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Grafik 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2079625" y="3397250"/>
+        <xdr:cNvPr id="8" name="Grafik 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4968875" y="3397250"/>
           <a:ext cx="257175" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -564,13 +672,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Grafik 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="9" name="Grafik 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -602,13 +716,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Grafik 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="10" name="Grafik 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -640,13 +760,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Grafik 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="11" name="Grafik 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -678,13 +804,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Grafik 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="12" name="Grafik 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -716,13 +848,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Grafik 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="13" name="Grafik 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -754,13 +892,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Grafik 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="14" name="Grafik 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -780,32 +924,38 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
+      <xdr:colOff>111125</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Grafik 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1889125" y="6302375"/>
+        <xdr:cNvPr id="15" name="Grafik 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1920875" y="6302375"/>
           <a:ext cx="257175" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -830,13 +980,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Grafik 15"/>
+        <xdr:cNvPr id="16" name="Grafik 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -881,13 +1037,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Grafik 16"/>
+        <xdr:cNvPr id="17" name="Grafik 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -949,13 +1111,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Grafik 17"/>
+        <xdr:cNvPr id="18" name="Grafik 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1017,13 +1185,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Grafik 18"/>
+        <xdr:cNvPr id="19" name="Grafik 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1057,85 +1231,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>545286</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Grafik 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="793750" y="3381375"/>
-          <a:ext cx="5784036" cy="1317625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Grafik 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2079625" y="3397250"/>
+        <xdr:cNvPr id="21" name="Grafik 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9080500" y="3397250"/>
           <a:ext cx="257175" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1155,13 +1280,19 @@
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Grafik 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="22" name="Grafik 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1180,28 +1311,34 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>384175</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Grafik 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4606925" y="4067175"/>
+        <xdr:cNvPr id="23" name="Grafik 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10464800" y="4067175"/>
           <a:ext cx="257175" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1221,13 +1358,19 @@
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Grafik 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="24" name="Grafik 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1254,13 +1397,19 @@
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Grafik 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="25" name="Grafik 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1287,13 +1436,19 @@
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Grafik 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="26" name="Grafik 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1320,13 +1475,19 @@
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Grafik 26"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="27" name="Grafik 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1353,13 +1514,19 @@
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Grafik 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="28" name="Grafik 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1391,13 +1558,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Grafik 28"/>
+        <xdr:cNvPr id="29" name="Grafik 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1459,13 +1632,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Grafik 29"/>
+        <xdr:cNvPr id="30" name="Grafik 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1527,13 +1706,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Grafik 30"/>
+        <xdr:cNvPr id="31" name="Grafik 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1595,13 +1780,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Grafik 31"/>
+        <xdr:cNvPr id="32" name="Grafik 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1635,61 +1826,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>545286</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Grafik 32"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7429500" y="3381375"/>
-          <a:ext cx="5784036" cy="1317625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
@@ -1700,13 +1836,19 @@
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Grafik 33"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="34" name="Grafik 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1733,13 +1875,19 @@
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Grafik 34"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="35" name="Grafik 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1766,13 +1914,19 @@
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Grafik 35"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="36" name="Grafik 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1799,13 +1953,19 @@
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Grafik 36"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="37" name="Grafik 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1832,13 +1992,19 @@
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Grafik 37"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="38" name="Grafik 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1865,13 +2031,19 @@
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Grafik 38"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="39" name="Grafik 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1898,13 +2070,19 @@
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Grafik 39"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="40" name="Grafik 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1931,13 +2109,19 @@
     <xdr:ext cx="257175" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Grafik 40"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <xdr:cNvPr id="41" name="Grafik 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2219,11 +2403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:AC47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
